--- a/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,4</t>
+          <t>-1,56; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,43</t>
+          <t>-0,57; 3,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 8,56</t>
+          <t>0,71; 8,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,15</t>
+          <t>-2,38; 1,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,39</t>
+          <t>-0,18; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 9,77</t>
+          <t>1,58; 10,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,66</t>
+          <t>-1,5; 0,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,05</t>
+          <t>0,07; 3,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,64</t>
+          <t>1,79; 7,33</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,38; 230,3</t>
+          <t>-74,66; 237,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 501,06</t>
+          <t>-37,56; 440,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,37; 1131,09</t>
+          <t>12,87; 1160,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,41; 99,95</t>
+          <t>-77,84; 103,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 335,52</t>
+          <t>-13,17; 384,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,5; 657,32</t>
+          <t>40,43; 743,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,26; 60,93</t>
+          <t>-63,94; 65,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 254,81</t>
+          <t>1,76; 257,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,97; 593,61</t>
+          <t>75,55; 517,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,53</t>
+          <t>-2,14; 0,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,93</t>
+          <t>-1,29; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,21</t>
+          <t>-0,25; 4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,85</t>
+          <t>-0,85; 2,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,63</t>
+          <t>-0,62; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,76</t>
+          <t>0,94; 6,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,16</t>
+          <t>-1,08; 1,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,0</t>
+          <t>-0,51; 1,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,42</t>
+          <t>1,0; 4,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 40,19</t>
+          <t>-72,51; 31,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 128,85</t>
+          <t>-48,3; 132,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 331,22</t>
+          <t>-18,7; 309,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 220,0</t>
+          <t>-34,4; 207,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 263,64</t>
+          <t>-22,7; 247,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 428,29</t>
+          <t>20,97; 443,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 76,31</t>
+          <t>-39,84; 68,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 123,4</t>
+          <t>-18,77; 118,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,72; 271,06</t>
+          <t>37,16; 300,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,64</t>
+          <t>-0,84; 3,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,66</t>
+          <t>-1,78; 2,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,51</t>
+          <t>0,2; 5,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,39</t>
+          <t>-2,33; 2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,93</t>
+          <t>1,0; 6,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,62</t>
+          <t>-1,91; 2,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,41</t>
+          <t>-0,88; 2,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,63</t>
+          <t>0,37; 3,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,45</t>
+          <t>-0,08; 3,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 186,98</t>
+          <t>-20,72; 169,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 121,78</t>
+          <t>-40,34; 129,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 237,9</t>
+          <t>-1,91; 258,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 72,68</t>
+          <t>-39,93; 74,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 182,23</t>
+          <t>13,52; 182,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 80,49</t>
+          <t>-33,51; 78,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 76,0</t>
+          <t>-19,01; 78,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,07; 117,2</t>
+          <t>6,0; 119,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 103,07</t>
+          <t>-3,13; 114,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,94</t>
+          <t>-1,02; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,56</t>
+          <t>0,88; 5,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,16</t>
+          <t>2,65; 7,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,48</t>
+          <t>-2,96; 2,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 10,15</t>
+          <t>3,47; 10,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,27</t>
+          <t>-1,09; 4,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,96</t>
+          <t>-1,48; 1,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,74</t>
+          <t>2,85; 6,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,26</t>
+          <t>1,61; 5,26</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 209,5</t>
+          <t>-38,97; 228,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,23; 435,71</t>
+          <t>18,37; 374,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>82,03; 684,93</t>
+          <t>71,38; 579,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 61,34</t>
+          <t>-43,69; 61,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,32; 245,48</t>
+          <t>43,88; 238,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 107,78</t>
+          <t>-15,08; 101,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 64,56</t>
+          <t>-31,16; 64,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>56,0; 222,23</t>
+          <t>57,46; 227,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,08; 171,02</t>
+          <t>31,65; 174,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,68</t>
+          <t>-3,74; 1,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 6,4</t>
+          <t>-0,3; 6,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,78</t>
+          <t>-0,75; 4,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,0</t>
+          <t>-2,9; 3,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,79</t>
+          <t>8,69; 17,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,49</t>
+          <t>-0,75; 5,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,6</t>
+          <t>-2,46; 1,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,05</t>
+          <t>5,62; 11,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,24</t>
+          <t>0,08; 4,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 65,18</t>
+          <t>-61,82; 70,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 235,91</t>
+          <t>-8,69; 257,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 172,37</t>
+          <t>-16,01; 177,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 81,45</t>
+          <t>-39,83; 78,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>124,27; 437,91</t>
+          <t>112,74; 424,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 151,9</t>
+          <t>-10,17; 127,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,3; 43,9</t>
+          <t>-40,91; 43,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>85,39; 293,48</t>
+          <t>89,56; 287,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,15; 119,94</t>
+          <t>1,0; 110,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,08</t>
+          <t>-1,37; 3,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,4</t>
+          <t>-0,23; 4,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,98</t>
+          <t>0,61; 5,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,38</t>
+          <t>-2,14; 3,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,32</t>
+          <t>6,23; 13,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 38,14</t>
+          <t>0,93; 32,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,61</t>
+          <t>-1,18; 2,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,53</t>
+          <t>3,8; 8,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,63; 26,84</t>
+          <t>1,68; 26,75</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 108,3</t>
+          <t>-28,94; 121,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 154,57</t>
+          <t>-8,37; 156,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,37; 173,86</t>
+          <t>12,23; 194,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 58,43</t>
+          <t>-24,47; 66,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>73,32; 232,83</t>
+          <t>73,26; 234,78</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,86; 742,7</t>
+          <t>11,24; 520,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 55,35</t>
+          <t>-18,76; 54,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>58,15; 174,07</t>
+          <t>56,68; 172,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>26,8; 494,8</t>
+          <t>26,42; 540,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,2</t>
+          <t>-0,5; 1,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,68</t>
+          <t>0,86; 2,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,49</t>
+          <t>2,38; 4,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,41</t>
+          <t>-0,7; 1,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,82</t>
+          <t>5,23; 7,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,87</t>
+          <t>2,25; 14,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,04</t>
+          <t>-0,28; 1,02</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,97</t>
+          <t>3,43; 5,03</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,56</t>
+          <t>2,77; 9,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 51,4</t>
+          <t>-16,05; 51,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>28,37; 114,37</t>
+          <t>25,12; 114,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>72,14; 187,0</t>
+          <t>73,92; 196,53</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 35,66</t>
+          <t>-13,43; 35,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>103,96; 193,78</t>
+          <t>102,45; 192,29</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>49,29; 344,32</t>
+          <t>46,05; 334,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 31,78</t>
+          <t>-7,55; 30,17</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>83,07; 147,8</t>
+          <t>86,62; 149,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>69,87; 286,41</t>
+          <t>73,07; 282,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,8</t>
+          <t>-1,53; 3,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 10,29</t>
+          <t>-1,87; 3,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 7,33</t>
+          <t>-1,29; 2,63</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>259,05%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>218,93%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>234,88%</t>
+          <t>10,67%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 1160,0</t>
+          <t>-100,0; 619,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,43; 743,92</t>
+          <t>-72,2; 276,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>75,55; 517,79</t>
+          <t>-61,68; 190,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,92</t>
+          <t>-1,61; 2,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,03</t>
+          <t>-1,13; 3,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,91</t>
+          <t>-0,76; 2,38</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>144,07%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>123,25%</t>
+          <t>24,33%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 309,52</t>
+          <t>-63,69; 188,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 443,79</t>
+          <t>-43,7; 226,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,16; 300,96</t>
+          <t>-30,6; 157,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,61</t>
+          <t>-0,97; 3,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,68</t>
+          <t>-1,93; 2,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,41</t>
+          <t>-2,22; 2,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,52</t>
+          <t>-2,42; 2,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,09</t>
+          <t>0,78; 5,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,71</t>
+          <t>-4,4; -0,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,45</t>
+          <t>-1,07; 2,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,6</t>
+          <t>0,16; 3,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,68</t>
+          <t>-2,6; 0,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>-43,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>-25,61%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 169,14</t>
+          <t>-24,05; 151,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 129,49</t>
+          <t>-43,3; 107,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 258,26</t>
+          <t>-52,5; 105,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 74,6</t>
+          <t>-42,29; 68,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 182,28</t>
+          <t>9,86; 167,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 78,42</t>
+          <t>-70,49; -5,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 78,21</t>
+          <t>-22,03; 70,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 119,26</t>
+          <t>2,16; 110,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 114,76</t>
+          <t>-52,31; 22,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,7</t>
+          <t>-1,71; 3,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,3</t>
+          <t>-3,46; 1,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,26</t>
+          <t>-1,9; 1,99</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>231,8%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,38; 579,95</t>
+          <t>-50,8; 205,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 101,38</t>
+          <t>-43,46; 41,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,65; 174,19</t>
+          <t>-40,07; 62,38</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,55</t>
+          <t>-2,74; 2,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,16</t>
+          <t>-2,47; 3,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,16</t>
+          <t>-1,65; 2,11</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 177,9</t>
+          <t>-49,06; 86,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 127,3</t>
+          <t>-31,46; 77,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,0; 110,24</t>
+          <t>-26,66; 59,72</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>30,81</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>19,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,31</t>
+          <t>-3,03; 3,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,55</t>
+          <t>-3,05; 2,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,17</t>
+          <t>-3,96; 1,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,65</t>
+          <t>-1,92; 6,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,23; 13,34</t>
+          <t>4,93; 14,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,93; 32,77</t>
+          <t>-1,82; 71,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,67</t>
+          <t>-1,25; 4,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,38</t>
+          <t>1,98; 7,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,68; 26,75</t>
+          <t>-1,47; 59,41</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>-2,97%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>-20,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>137,42%</t>
+          <t>131,78%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>164,73%</t>
+          <t>434,67%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>111,89%</t>
+          <t>84,42%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>142,67%</t>
+          <t>331,16%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 121,85</t>
+          <t>-56,53; 119,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 156,9</t>
+          <t>-54,64; 94,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>12,23; 194,16</t>
+          <t>-63,27; 77,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 66,77</t>
+          <t>-22,14; 119,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>73,26; 234,78</t>
+          <t>45,1; 273,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>11,24; 520,81</t>
+          <t>-24,49; 1465,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 54,65</t>
+          <t>-17,86; 89,45</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>56,68; 172,92</t>
+          <t>26,3; 175,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>26,42; 540,53</t>
+          <t>-24,34; 1146,85</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,15</t>
+          <t>-2,39; 5,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,72</t>
+          <t>1,23; 8,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,61</t>
+          <t>-2,16; 4,6</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,44</t>
+          <t>-4,44; 3,04</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,78</t>
+          <t>5,06; 15,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,25; 14,81</t>
+          <t>-4,68; 1,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,02</t>
+          <t>-2,48; 2,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,03</t>
+          <t>4,39; 11,37</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,67</t>
+          <t>-2,8; 2,13</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>144,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>124,04%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>142,24%</t>
+          <t>142,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>115,88%</t>
+          <t>-17,79%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>142,61%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>121,25%</t>
+          <t>-3,36%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 51,74</t>
+          <t>-52,64; 280,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>25,12; 114,87</t>
+          <t>15,11; 485,45</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>73,92; 196,53</t>
+          <t>-39,81; 268,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 35,03</t>
+          <t>-49,67; 63,78</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>102,45; 192,29</t>
+          <t>50,71; 320,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>46,05; 334,04</t>
+          <t>-49,06; 43,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 30,17</t>
+          <t>-35,25; 72,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>86,62; 149,53</t>
+          <t>61,91; 275,01</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>73,07; 282,98</t>
+          <t>-36,82; 53,13</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 1,13</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 2,68</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 1,43</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 1,4</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>5,19; 7,78</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 21,68</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 0,98</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 5,0</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 12,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>62,63%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>140,44%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>113,66%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>112,21%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>79,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-17,06; 48,67</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>23,91; 110,49</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-13,61; 59,37</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-14,37; 33,57</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>101,58; 191,26</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 540,21</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 29,03</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>84,69; 146,99</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 358,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,26</t>
+          <t>-1,5; 1,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,14</t>
+          <t>-0,57; 3,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,47</t>
+          <t>-1,63; 3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,04</t>
+          <t>-2,35; 1,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,54</t>
+          <t>-0,24; 4,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,71</t>
+          <t>-1,77; 3,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,77</t>
+          <t>-1,53; 0,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,13</t>
+          <t>0,18; 3,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,63</t>
+          <t>-1,35; 2,49</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,66; 237,09</t>
+          <t>-75,2; 188,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 440,06</t>
+          <t>-39,56; 477,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 619,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,84; 103,78</t>
+          <t>-73,7; 113,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 384,01</t>
+          <t>-15,5; 354,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,2; 276,82</t>
+          <t>-73,1; 272,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,94; 65,56</t>
+          <t>-65,64; 64,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 257,57</t>
+          <t>5,24; 229,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-61,68; 190,77</t>
+          <t>-65,24; 177,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,41</t>
+          <t>-2,13; 0,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,92</t>
+          <t>-1,39; 2,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,75</t>
+          <t>-1,39; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,73</t>
+          <t>-0,92; 2,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,3</t>
+          <t>-0,46; 3,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,09</t>
+          <t>-1,39; 2,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,1</t>
+          <t>-1,09; 1,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,94</t>
+          <t>-0,48; 1,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,38</t>
+          <t>-0,75; 2,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,51; 31,2</t>
+          <t>-73,92; 44,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 132,78</t>
+          <t>-50,73; 153,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,69; 188,22</t>
+          <t>-61,98; 249,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 207,64</t>
+          <t>-32,68; 209,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 247,67</t>
+          <t>-20,02; 248,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 226,33</t>
+          <t>-47,42; 202,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,84; 68,31</t>
+          <t>-40,62; 79,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 118,56</t>
+          <t>-20,31; 120,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 157,46</t>
+          <t>-31,49; 147,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,48</t>
+          <t>-1,22; 3,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,49</t>
+          <t>-1,91; 2,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,33</t>
+          <t>-2,1; 2,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,42</t>
+          <t>-2,12; 2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,92</t>
+          <t>0,61; 5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; -0,21</t>
+          <t>-4,03; 0,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,28</t>
+          <t>-1,06; 2,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,49</t>
+          <t>0,13; 3,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,68</t>
+          <t>-2,46; 0,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 151,59</t>
+          <t>-30,6; 155,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 107,59</t>
+          <t>-42,89; 101,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 105,53</t>
+          <t>-49,94; 104,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 68,4</t>
+          <t>-37,44; 71,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,86; 167,89</t>
+          <t>7,57; 162,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,49; -5,23</t>
+          <t>-68,22; 5,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 70,78</t>
+          <t>-22,46; 68,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 110,67</t>
+          <t>1,78; 104,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 22,19</t>
+          <t>-51,82; 13,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,04</t>
+          <t>-1,14; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,28</t>
+          <t>0,92; 5,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,25</t>
+          <t>-1,87; 3,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,53</t>
+          <t>-2,92; 2,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,09</t>
+          <t>3,56; 10,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,69</t>
+          <t>-3,37; 1,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,91</t>
+          <t>-1,44; 1,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,86</t>
+          <t>2,91; 6,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,99</t>
+          <t>-2,22; 1,84</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 228,43</t>
+          <t>-40,51; 232,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18,37; 374,81</t>
+          <t>21,6; 402,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 205,29</t>
+          <t>-55,64; 199,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 61,4</t>
+          <t>-41,92; 60,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,88; 238,97</t>
+          <t>48,14; 245,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 41,91</t>
+          <t>-44,66; 41,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 64,55</t>
+          <t>-30,3; 64,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>57,46; 227,42</t>
+          <t>56,33; 230,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,07; 62,38</t>
+          <t>-42,02; 58,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 1,86</t>
+          <t>-3,45; 1,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,28</t>
+          <t>-0,45; 5,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,21</t>
+          <t>-2,78; 2,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,31</t>
+          <t>-3,2; 2,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,69; 17,26</t>
+          <t>9,21; 17,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,09</t>
+          <t>-2,14; 3,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,61</t>
+          <t>-2,37; 1,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,11</t>
+          <t>5,75; 11,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,11</t>
+          <t>-1,58; 2,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,82; 70,33</t>
+          <t>-61,97; 62,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 257,92</t>
+          <t>-13,58; 212,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 86,01</t>
+          <t>-50,66; 89,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 78,78</t>
+          <t>-43,94; 66,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>112,74; 424,4</t>
+          <t>113,56; 425,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 77,11</t>
+          <t>-28,42; 83,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 43,51</t>
+          <t>-40,82; 45,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>89,56; 287,01</t>
+          <t>94,29; 292,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 59,72</t>
+          <t>-25,03; 59,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,23</t>
+          <t>-2,84; 3,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,64</t>
+          <t>-3,26; 3,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,72</t>
+          <t>-3,57; 1,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 6,17</t>
+          <t>-1,58; 6,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,93; 14,4</t>
+          <t>4,87; 13,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 71,59</t>
+          <t>-1,78; 68,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,07</t>
+          <t>-1,37; 3,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,94</t>
+          <t>2,02; 7,76</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 59,41</t>
+          <t>-1,24; 52,03</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 119,97</t>
+          <t>-50,53; 121,17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 94,13</t>
+          <t>-56,22; 109,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,27; 77,61</t>
+          <t>-61,3; 67,21</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 119,89</t>
+          <t>-19,54; 125,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>45,1; 273,44</t>
+          <t>52,11; 280,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 1465,0</t>
+          <t>-22,54; 1456,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 89,45</t>
+          <t>-20,25; 80,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>26,3; 175,49</t>
+          <t>26,86; 167,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 1146,85</t>
+          <t>-21,38; 1232,93</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,45</t>
+          <t>-2,19; 5,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,23; 8,65</t>
+          <t>1,44; 9,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,6</t>
+          <t>-1,6; 4,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,04</t>
+          <t>-4,3; 3,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,33</t>
+          <t>5,09; 15,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,88</t>
+          <t>-4,65; 1,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,97</t>
+          <t>-2,63; 2,99</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,39; 11,37</t>
+          <t>4,46; 11,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,13</t>
+          <t>-2,74; 2,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 280,65</t>
+          <t>-47,7; 314,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>15,11; 485,45</t>
+          <t>17,12; 492,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 268,5</t>
+          <t>-36,64; 295,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 63,78</t>
+          <t>-48,4; 69,24</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>50,71; 320,85</t>
+          <t>54,03; 320,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 43,93</t>
+          <t>-47,91; 41,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 72,23</t>
+          <t>-38,07; 71,89</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>61,91; 275,01</t>
+          <t>60,38; 275,61</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 53,13</t>
+          <t>-36,5; 50,45</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,13</t>
+          <t>-0,55; 1,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,68</t>
+          <t>0,82; 2,69</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,43</t>
+          <t>-0,51; 1,51</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,4</t>
+          <t>-0,6; 1,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,78</t>
+          <t>5,17; 7,8</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 21,68</t>
+          <t>-0,25; 22,37</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,98</t>
+          <t>-0,39; 0,97</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,0</t>
+          <t>3,26; 4,94</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,05; 12,42</t>
+          <t>-0,01; 12,78</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 48,67</t>
+          <t>-17,69; 46,48</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>23,91; 110,49</t>
+          <t>24,92; 113,86</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 59,37</t>
+          <t>-16,08; 63,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 33,57</t>
+          <t>-12,0; 34,39</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>101,58; 191,26</t>
+          <t>100,0; 189,91</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 540,21</t>
+          <t>-5,12; 516,71</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 29,03</t>
+          <t>-9,97; 27,58</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>84,69; 146,99</t>
+          <t>79,92; 143,89</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1,24; 358,16</t>
+          <t>-0,52; 356,2</t>
         </is>
       </c>
     </row>
